--- a/StarRail/Assets/Data/Data.xlsx
+++ b/StarRail/Assets/Data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KGA\JJ\GitTest\Study_UnityUI\Study_UnityUI\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85c495350ca46f3d/문서/GitHub/Unity_Starrail/StarRail/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1749A0F6-6708-4F7B-A364-59C5BDF25C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{1749A0F6-6708-4F7B-A364-59C5BDF25C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E882143D-0D23-4678-83E9-E7A2F840BE4C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9300" yWindow="2660" windowWidth="17480" windowHeight="10140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -765,17 +765,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="20.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.08203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20.08203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -803,7 +803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -817,7 +817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -842,19 +842,19 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="112.875" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="112.875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="178.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="112.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -900,7 +900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -923,7 +923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -946,7 +946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -969,7 +969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
@@ -992,7 +992,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1007</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1008</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1009</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1011</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1012</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1013</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1014</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1015</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1016</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1017</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>1018</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1019</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1020</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1021</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>1022</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1023</v>
       </c>
@@ -1409,5 +1409,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>